--- a/front-end/public/files/templatesExcelUser.xlsx
+++ b/front-end/public/files/templatesExcelUser.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6503D416-DF3F-447F-A3BE-5955AC519B76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12BBD193-F839-44C7-A2F0-EE7DC434E8B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{74F51FF4-4541-4124-9EA8-804DECBE6E3C}"/>
   </bookViews>
@@ -121,12 +121,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -445,38 +452,39 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" customWidth="1"/>
-    <col min="2" max="3" width="30.77734375" customWidth="1"/>
-    <col min="4" max="4" width="20.77734375" customWidth="1"/>
-    <col min="5" max="5" width="45.77734375" customWidth="1"/>
+    <col min="1" max="1" width="5.77734375" style="3" customWidth="1"/>
+    <col min="2" max="3" width="30.77734375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.77734375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="45.77734375" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
